--- a/biology/Zoologie/Ctenochaetus/Ctenochaetus.xlsx
+++ b/biology/Zoologie/Ctenochaetus/Ctenochaetus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ctenochaetus est un genre de poissons marins de la famille des Acanthuridae. Le nom du genre vient du grec ktenos, peigne, et de chaite, cheveux. Ces poissons sont appelés dent de peigne en français. Leurs bouche et dents spécialisées caractérisent les membres du genre.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contrairement à la plupart des poissons-chirurgiens, les représentants de ce genre ont des dents mobiles, tellement fines qu'elles ressemblent à des poils, permettant de traquer les animaux minuscules dont ils se nourrissent, ou de racler des recoins en quête de matière organique[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contrairement à la plupart des poissons-chirurgiens, les représentants de ce genre ont des dents mobiles, tellement fines qu'elles ressemblent à des poils, permettant de traquer les animaux minuscules dont ils se nourrissent, ou de racler des recoins en quête de matière organique. 
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Aquariophilie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des poissons chirurgiens qui sont agréablement formés, bien colorés, et intéressants du point de vue comportemental.
 Ils restent cependant rares du fait des difficultés de transport de manipulation et d'alimentation.
@@ -574,9 +590,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon FishBase                                           (30 janv. 2016)[2] et World Register of Marine Species                               (30 janv. 2016)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon FishBase                                           (30 janv. 2016) et World Register of Marine Species                               (30 janv. 2016) :
 Ctenochaetus binotatus Randall, 1955
 Ctenochaetus cyanocheilus Randall &amp; Clements, 2001
 Ctenochaetus flavicauda Fowler, 1938
